--- a/biology/Médecine/Claudel_Noubissie/Claudel_Noubissie.xlsx
+++ b/biology/Médecine/Claudel_Noubissie/Claudel_Noubissie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudel Noubissie est un médecin, auteur, entrepreneur en série et influenceur camerounais. Il est connu pour sa forte présence sur les réseaux sociaux et pour ses académies de formation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudel Noubissie est un médecin, auteur, entrepreneur en série et influenceur camerounais. Il est connu pour sa forte présence sur les réseaux sociaux et pour ses académies de formation.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, éducation et débuts
-Claudel Noubissié est le fils de Jean Paul Noubissié qui a eu 8 enfants. Il a des frères et sœurs tels Sylvin Sielinou homme d'affaires, Augustin Zeus entrepreneur, Yvette Todem, médecin. Il fait des études de médecine et obtient un doctorat dans cette discipline au Cameroun[2].
-Carrière
-Après avoir exercé la médecine en début de carrière, Claudel Noubissie se convainc que ce n'est pas sa voie. Il se lance alors dans de multiples activités dont l'entreprise, le coaching sur les réseaux sociaux[3].
+          <t>Enfance, éducation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudel Noubissié est le fils de Jean Paul Noubissié qui a eu 8 enfants. Il a des frères et sœurs tels Sylvin Sielinou homme d'affaires, Augustin Zeus entrepreneur, Yvette Todem, médecin. Il fait des études de médecine et obtient un doctorat dans cette discipline au Cameroun.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir exercé la médecine en début de carrière, Claudel Noubissie se convainc que ce n'est pas sa voie. Il se lance alors dans de multiples activités dont l'entreprise, le coaching sur les réseaux sociaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claudel_Noubissie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudel_Noubissie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Claudel Noubissie est l'auteur de 4 ouvrages[4]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Claudel Noubissie est l'auteur de 4 ouvrages:
 Stop assez de mensonges sur le VIH-SIDA : Nouvelle perception de la thématique qu’est celle du SIDA et remise en question de nombreux préjugés en rapport.
 La fonction marketing à l’hôpital : l'importance du marketing qui respecte l'éthique et la déontologie en milieu hospitalier.
 Un médecin atypique : Autobiographie de l'auteur
